--- a/Employment Summary_2022.xlsx
+++ b/Employment Summary_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natdeacon/Desktop/GitHub/Law_School_Outcomes_Economics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{982AAE9D-0F6F-EA45-AE3A-04EEEA0CA648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC50310C-0487-6147-B9B9-41D98747F145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employment Summary_2022." sheetId="1" r:id="rId1"/>
@@ -2636,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FC197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CY1" workbookViewId="0">
-      <selection activeCell="DS1" sqref="DS1"/>
+    <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
+      <selection activeCell="EM1" sqref="A1:FC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
